--- a/VBA/DBデータ並べ替えマクロ/memo.xlsx
+++ b/VBA/DBデータ並べ替えマクロ/memo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\DBデータ並べ替えマクロ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F7895-987D-42A9-B30B-395BF6D748DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F263A39C-854D-4686-AF20-96FC59A2409E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="120" windowWidth="16665" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
     <t>AsIs2ToBe DBデータ並べ替えマクロ</t>
     <rPh sb="15" eb="16">
@@ -913,6 +913,359 @@
     <t>[target]シートのExcelファイルを開く。</t>
     <rPh sb="22" eb="23">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■追加仕様</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeシート全削除ボタンを[macro]シートに追加。</t>
+    <rPh sb="7" eb="10">
+      <t>ゼンサクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→[target]シートのExcelファイルを開いてToBe シートがあれば削除して保存する。</t>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeマッピング元ネタ作成支援ボタン[macro]シートに追加。</t>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→[macro]シートに以下入力項目がある。</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeテーブル定義ファイルパス（絶対パス）</t>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゼッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル論理名セル位置（A1形式）</t>
+    <rPh sb="4" eb="7">
+      <t>ロンリメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル物理名セル位置（A1形式）</t>
+    <rPh sb="4" eb="7">
+      <t>ブツリメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeのカラム名（物理名）のセル位置（A1形式）</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ブツリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeのカラム名（論理名）のセル位置（A1形式）</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeのキーのセル位置（A1形式）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeのデータ型のセル位置（A1形式）</t>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeの桁数のセル位置（A1形式）</t>
+    <rPh sb="5" eb="7">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeの桁数(小数部)のセル位置（A1形式）</t>
+    <rPh sb="5" eb="7">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショウスウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeの説明のセル位置（A1形式）</t>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeの備考のセル位置（A1形式）</t>
+    <rPh sb="5" eb="7">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeのカラム削除指定のセル位置（A1形式）</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※"X"は削除なので、収集対象外</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シュウシュウタイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B32～Bxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToBeテーブル定義ファイルのシート名</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>く)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>け)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>し)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>す)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ToBeマッピング元ネタ作成支援ボタン押下すると、</t>
+    <rPh sb="20" eb="22">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ)のファイルを開き、す)のシート（シートは全て同じフォーマット）に対して、い）～さ）を取得して、新規シートに[mapping]シートと同じ位置に内容を転記していく。え）～さ）は下方向に向かって処理していき、え）が空セルを検知するまで転記していく）</t>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>テンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1384,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:W72"/>
+  <dimension ref="B2:W94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -2103,7 +2456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="6:7">
+    <row r="65" spans="3:10">
       <c r="F65" s="1" t="s">
         <v>101</v>
       </c>
@@ -2111,7 +2464,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="6:7">
+    <row r="66" spans="3:10">
       <c r="F66" s="1" t="s">
         <v>108</v>
       </c>
@@ -2119,7 +2472,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="6:7">
+    <row r="67" spans="3:10">
       <c r="F67" s="1" t="s">
         <v>109</v>
       </c>
@@ -2127,7 +2480,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="6:7">
+    <row r="68" spans="3:10">
       <c r="F68" s="1" t="s">
         <v>110</v>
       </c>
@@ -2135,12 +2488,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="6:7">
+    <row r="69" spans="3:10">
       <c r="G69" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="6:7">
+    <row r="70" spans="3:10">
       <c r="F70" s="1" t="s">
         <v>111</v>
       </c>
@@ -2148,17 +2501,207 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="6:7">
+    <row r="71" spans="3:10">
       <c r="G71" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="6:7">
+    <row r="72" spans="3:10">
       <c r="F72" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="C75" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10">
+      <c r="D76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="E77" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10">
+      <c r="D78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10">
+      <c r="E79" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10">
+      <c r="F80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="5:21">
+      <c r="F81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="5:21">
+      <c r="F82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="5:21">
+      <c r="F83" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="5:21">
+      <c r="F84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="5:21">
+      <c r="F85" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="5:21">
+      <c r="F86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="5:21">
+      <c r="F87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="5:21">
+      <c r="F88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="5:21">
+      <c r="F89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="5:21">
+      <c r="F90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="5:21">
+      <c r="F91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="5:21">
+      <c r="F92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="5:21">
+      <c r="E93" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="5:21">
+      <c r="F94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/VBA/DBデータ並べ替えマクロ/memo.xlsx
+++ b/VBA/DBデータ並べ替えマクロ/memo.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\DBデータ並べ替えマクロ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F263A39C-854D-4686-AF20-96FC59A2409E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A03D8-AD9E-4A1D-9201-B3C84379A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="120" windowWidth="16665" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,14 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B2〜Bxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C2〜Cxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ToBeのテーブル名（物理名）</t>
     <rPh sb="9" eb="10">
       <t>メイ</t>
@@ -389,10 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D2〜Dxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ToBeのカラム名（物理名）</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
@@ -416,14 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E2〜Exx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F2〜Fxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ToBeのキー（主キー：X、ユニークキー：U）</t>
     <rPh sb="8" eb="9">
       <t>シュ</t>
@@ -431,14 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>G2〜Gxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H2〜Hxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ToBeのデータ型</t>
     <rPh sb="8" eb="9">
       <t>カタ</t>
@@ -453,14 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>I2〜Ixx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J2〜Jxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ToBeの桁数(小数部)</t>
     <rPh sb="5" eb="7">
       <t>ケタスウ</t>
@@ -471,14 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>K2〜Kxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L2〜Lxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ToBeの説明</t>
     <rPh sb="5" eb="7">
       <t>セツメイ</t>
@@ -486,10 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M2〜Mxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ToBeの備考</t>
     <rPh sb="5" eb="7">
       <t>ビコウ</t>
@@ -497,14 +449,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O2〜Oxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P2〜Pxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AsIsのテーブル名（物理名）</t>
     <rPh sb="9" eb="10">
       <t>メイ</t>
@@ -551,18 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Q2〜Qxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R2〜Rxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N2〜Nxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>空</t>
     <rPh sb="0" eb="1">
       <t>カラ</t>
@@ -1267,6 +1199,74 @@
     <rPh sb="117" eb="119">
       <t>テンキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B5〜Bxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C5〜Cxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5〜Dxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E5〜Exx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F5〜Fxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G5〜Gxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H5〜Hxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I5〜Ixx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J5〜Jxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K5〜Kxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L5〜Lxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M5〜Mxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N5〜Nxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O5〜Oxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P5〜Pxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q5〜Qxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R5〜Rxx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1737,10 +1737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:W94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="34" spans="4:23">
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="4:23">
@@ -2163,360 +2164,360 @@
         <v>51</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="4:23">
       <c r="F37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U37" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="4:23">
       <c r="F38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="U38" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="4:23">
       <c r="F39" s="1" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="4:23">
       <c r="F40" s="1" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="4:23">
       <c r="F41" s="1" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="4:23">
       <c r="F42" s="1" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="4:23">
       <c r="F43" s="1" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="4:23">
       <c r="F44" s="1" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="4:23">
       <c r="F45" s="1" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="4:23">
       <c r="F46" s="1" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="4:23">
       <c r="F47" s="1" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="4:23">
       <c r="F48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U48" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="49" spans="4:23">
       <c r="F49" s="1" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="4:23">
       <c r="F50" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="4:23">
       <c r="F51" s="1" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="4:23">
       <c r="F52" s="1" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="4:23">
       <c r="F53" s="1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="4:23">
       <c r="D54" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="4:23">
       <c r="F55" s="1" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="4:23">
       <c r="F56" s="1" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W56" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="4:23">
       <c r="F57" s="1" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="4:23">
       <c r="F58" s="1" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="4:23">
       <c r="F59" s="1" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="4:23">
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="4:23">
       <c r="F61" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="4:23">
       <c r="D62" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="4:23">
       <c r="F63" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="4:23">
       <c r="G64" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="3:10">
       <c r="F65" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="3:10">
       <c r="F66" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="3:10">
       <c r="F67" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="3:10">
       <c r="F68" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="3:10">
       <c r="G69" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="3:10">
       <c r="F70" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="3:10">
       <c r="G71" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="3:10">
       <c r="F72" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="3:10">
       <c r="C75" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="3:10">
@@ -2524,12 +2525,12 @@
         <v>45</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="3:10">
       <c r="E77" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="3:10">
@@ -2537,171 +2538,171 @@
         <v>46</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="3:10">
       <c r="E79" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="3:10">
       <c r="F80" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="5:21">
       <c r="F81" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="5:21">
       <c r="F82" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="5:21">
       <c r="F83" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="5:21">
       <c r="F84" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="5:21">
       <c r="F85" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="5:21">
       <c r="F86" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="5:21">
       <c r="F87" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="5:21">
       <c r="F88" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="5:21">
       <c r="F89" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="5:21">
       <c r="F90" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="5:21">
       <c r="F91" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="5:21">
       <c r="F92" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="5:21">
       <c r="E93" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="5:21">
       <c r="F94" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
